--- a/aCCTg. pROGRAm/CRB.xlsx
+++ b/aCCTg. pROGRAm/CRB.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="78">
   <si>
     <t>sCHEDULe</t>
   </si>
@@ -238,6 +238,18 @@
   </si>
   <si>
     <t>ADJUSTED T/B</t>
+  </si>
+  <si>
+    <t>utang ng costumer so dapat nasa disbursement?</t>
+  </si>
+  <si>
+    <t>loans ng customers</t>
+  </si>
+  <si>
+    <t>cash advance sa empleyado, to be deducted to salary</t>
+  </si>
+  <si>
+    <t>pagmanghiram debit sa CA dayun credit sa CASH account</t>
   </si>
 </sst>
 </file>
@@ -575,6 +587,10 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -596,10 +612,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -907,8 +919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -968,12 +980,12 @@
       <c r="E2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
       <c r="J2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1321,12 +1333,12 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.5703125" customWidth="1"/>
+    <col min="1" max="1" width="33.42578125" customWidth="1"/>
     <col min="2" max="2" width="23.85546875" customWidth="1"/>
     <col min="3" max="3" width="21.42578125" customWidth="1"/>
     <col min="4" max="4" width="18.42578125" customWidth="1"/>
@@ -1359,7 +1371,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="20"/>
-      <c r="H2" s="51"/>
+      <c r="H2" s="44"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -1371,19 +1383,28 @@
       <c r="A4" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="20"/>
+      <c r="B4" s="20" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="20"/>
+      <c r="B5" s="20" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="20"/>
+      <c r="B6" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1605,7 +1626,7 @@
   <dimension ref="A1:S41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection sqref="A1:S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1624,27 +1645,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="47"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="51"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="41" t="s">
@@ -1678,34 +1699,34 @@
       <c r="S2" s="41"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="E3" s="48" t="s">
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="E3" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="24"/>
-      <c r="I3" s="48" t="s">
+      <c r="I3" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
       <c r="L3" s="27"/>
-      <c r="M3" s="48" t="s">
+      <c r="M3" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="N3" s="48"/>
-      <c r="O3" s="48"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
       <c r="P3" s="27"/>
-      <c r="Q3" s="48" t="s">
+      <c r="Q3" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="R3" s="48"/>
-      <c r="S3" s="48"/>
+      <c r="R3" s="52"/>
+      <c r="S3" s="52"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
@@ -1880,11 +1901,11 @@
       <c r="S7" s="29"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="29">
+      <c r="A8" s="31">
         <f>+C34</f>
         <v>100000</v>
       </c>
-      <c r="B8" s="52">
+      <c r="B8" s="45">
         <v>0</v>
       </c>
       <c r="C8" s="37">
@@ -1912,7 +1933,7 @@
       <c r="A9" s="31">
         <v>0</v>
       </c>
-      <c r="B9" s="24">
+      <c r="B9" s="45">
         <f>+E41</f>
         <v>10000</v>
       </c>
@@ -1938,25 +1959,25 @@
       <c r="S9" s="29"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="49"/>
-      <c r="B10" s="50"/>
-      <c r="C10" s="49"/>
+      <c r="A10" s="42"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="42"/>
       <c r="D10" s="22"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="49"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="42"/>
       <c r="H10" s="22"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="50"/>
-      <c r="K10" s="49"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="42"/>
       <c r="L10" s="22"/>
-      <c r="M10" s="49"/>
-      <c r="N10" s="50"/>
-      <c r="O10" s="49"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="43"/>
+      <c r="O10" s="42"/>
       <c r="P10" s="22"/>
-      <c r="Q10" s="49"/>
-      <c r="R10" s="50"/>
-      <c r="S10" s="49"/>
+      <c r="Q10" s="42"/>
+      <c r="R10" s="43"/>
+      <c r="S10" s="42"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1991,10 +2012,10 @@
         <f>+C15</f>
         <v>500000</v>
       </c>
-      <c r="J17" s="44" t="s">
+      <c r="J17" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="K17" s="44"/>
+      <c r="K17" s="48"/>
       <c r="L17" s="18" t="s">
         <v>72</v>
       </c>

--- a/aCCTg. pROGRAm/CRB.xlsx
+++ b/aCCTg. pROGRAm/CRB.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="102">
   <si>
     <t>sCHEDULe</t>
   </si>
@@ -240,16 +241,88 @@
     <t>ADJUSTED T/B</t>
   </si>
   <si>
-    <t>utang ng costumer so dapat nasa disbursement?</t>
-  </si>
-  <si>
-    <t>loans ng customers</t>
-  </si>
-  <si>
-    <t>cash advance sa empleyado, to be deducted to salary</t>
-  </si>
-  <si>
-    <t>pagmanghiram debit sa CA dayun credit sa CASH account</t>
+    <t>cash advance sa empleyado, to be deducted to salary. pagmanghiram debit sa Advances dayun credit sa CASH account. Dayun credit sa salary and wages?</t>
+  </si>
+  <si>
+    <t>credit sa SSS/HDMF… debit kung makabayad na. credit sa cash or cash in bank?</t>
+  </si>
+  <si>
+    <t>credit sa capital, debit kung i-withdraw ang capital dayun Credit sa cash?</t>
+  </si>
+  <si>
+    <t>credit sa sales, debit kung naay refund dayun credit sa cash.</t>
+  </si>
+  <si>
+    <t>same sa sales</t>
+  </si>
+  <si>
+    <t>debit sa purchases, credit sa cash on hand, kung naay sukli debit na pud sa cash on hand?</t>
+  </si>
+  <si>
+    <t>utang ng costumer, credit on sales?yes. Debit on accounts receivalbe - IOU(quantity, amount, date, parties involved), issue INVOICE</t>
+  </si>
+  <si>
+    <t>loans ng customers, issue cash voucher to customer? Credit sa cash?yes Debit sa loans receivable?</t>
+  </si>
+  <si>
+    <t>payroll</t>
+  </si>
+  <si>
+    <t>salary</t>
+  </si>
+  <si>
+    <t>DEDUCTION</t>
+  </si>
+  <si>
+    <t>NET PAY</t>
+  </si>
+  <si>
+    <t>SSS</t>
+  </si>
+  <si>
+    <t>PHEALTH</t>
+  </si>
+  <si>
+    <t>PAGIBIG</t>
+  </si>
+  <si>
+    <t>C/A</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>SIGNATURE</t>
+  </si>
+  <si>
+    <t>C / A</t>
+  </si>
+  <si>
+    <t>Note: Sales Invoice, charge invoice</t>
+  </si>
+  <si>
+    <t>An accrued expense is an accounting expense recognized in the books before it is paid for.  Para ma equal ang debit ug credit. Debit sa accrued expenses, debit sa expenses? Pag makabayad na credit sa cash or cash in bank? credit sa accrued expenses?</t>
+  </si>
+  <si>
+    <t>credit sa loans payable. Kung makabayad na, debit sa loans payable, credit sa cash or cash in bank? (has sales invoice?)</t>
+  </si>
+  <si>
+    <t>CASH VOUCHER</t>
+  </si>
+  <si>
+    <t>Utang sa company sa suppliers or debtors. Credit on account payable? Pagnakabayad na credit on cash or cash in bank? record when receive check invoice-(quantity, price, date, parties, taxes, invoice number)</t>
+  </si>
+  <si>
+    <t>Note: For every release of cash issue Cash Invoice</t>
+  </si>
+  <si>
+    <t>Q: bay OR tanan expense? No</t>
+  </si>
+  <si>
+    <t>Q: unsa man ang ibutang sa disbursement kung walay OR?</t>
+  </si>
+  <si>
+    <t>any document?</t>
   </si>
 </sst>
 </file>
@@ -524,7 +597,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -610,6 +683,20 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -919,8 +1006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1329,11 +1416,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1371,6 +1458,9 @@
         <v>1</v>
       </c>
       <c r="B2" s="20"/>
+      <c r="C2" t="s">
+        <v>98</v>
+      </c>
       <c r="H2" s="44"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1378,13 +1468,16 @@
         <v>23</v>
       </c>
       <c r="B3" s="20"/>
+      <c r="C3" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>24</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1392,7 +1485,7 @@
         <v>25</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1400,40 +1493,52 @@
         <v>26</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="E6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>27</v>
       </c>
+      <c r="B7" t="s">
+        <v>94</v>
+      </c>
       <c r="C7" s="20"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>28</v>
       </c>
+      <c r="B8" t="s">
+        <v>97</v>
+      </c>
       <c r="C8" s="20"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>29</v>
       </c>
+      <c r="B9" s="44" t="s">
+        <v>95</v>
+      </c>
       <c r="C9" s="20"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>44</v>
       </c>
+      <c r="B10" s="44" t="s">
+        <v>75</v>
+      </c>
       <c r="C10" s="20"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>30</v>
       </c>
+      <c r="B11" s="44" t="s">
+        <v>76</v>
+      </c>
       <c r="D11" s="20"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1446,6 +1551,9 @@
       <c r="A13" t="s">
         <v>32</v>
       </c>
+      <c r="B13" t="s">
+        <v>77</v>
+      </c>
       <c r="E13" s="20"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1458,6 +1566,9 @@
       <c r="A15" t="s">
         <v>34</v>
       </c>
+      <c r="B15" t="s">
+        <v>78</v>
+      </c>
       <c r="E15" s="20"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1476,6 +1587,9 @@
       <c r="A18" t="s">
         <v>37</v>
       </c>
+      <c r="B18" t="s">
+        <v>79</v>
+      </c>
       <c r="F18" s="20"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1506,77 +1620,116 @@
       <c r="A23" t="s">
         <v>42</v>
       </c>
+      <c r="C23" t="s">
+        <v>99</v>
+      </c>
       <c r="F23" s="20"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>43</v>
       </c>
+      <c r="C24" t="s">
+        <v>100</v>
+      </c>
       <c r="F24" s="20"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>46</v>
       </c>
+      <c r="C25" t="s">
+        <v>101</v>
+      </c>
       <c r="F25" s="20"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>45</v>
       </c>
+      <c r="C26" t="s">
+        <v>101</v>
+      </c>
       <c r="F26" s="20"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>47</v>
       </c>
+      <c r="C27" t="s">
+        <v>101</v>
+      </c>
       <c r="F27" s="20"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>48</v>
       </c>
+      <c r="C28" t="s">
+        <v>101</v>
+      </c>
       <c r="F28" s="20"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>49</v>
       </c>
+      <c r="C29" t="s">
+        <v>101</v>
+      </c>
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>50</v>
       </c>
+      <c r="C30" t="s">
+        <v>101</v>
+      </c>
       <c r="F30" s="20"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>51</v>
       </c>
+      <c r="C31" t="s">
+        <v>101</v>
+      </c>
       <c r="F31" s="20"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>52</v>
       </c>
+      <c r="C32" t="s">
+        <v>101</v>
+      </c>
       <c r="F32" s="20"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>53</v>
       </c>
+      <c r="C33" t="s">
+        <v>101</v>
+      </c>
       <c r="F33" s="20"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>54</v>
       </c>
+      <c r="C34" t="s">
+        <v>101</v>
+      </c>
       <c r="F34" s="20"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>55</v>
+      </c>
+      <c r="C35" t="s">
+        <v>101</v>
       </c>
       <c r="F35" s="20"/>
     </row>
@@ -1625,8 +1778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:S1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2120,4 +2273,133 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:I14"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C4" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="54" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="F5" s="54" t="s">
+        <v>89</v>
+      </c>
+      <c r="G5" s="54" t="s">
+        <v>90</v>
+      </c>
+      <c r="H5" t="s">
+        <v>85</v>
+      </c>
+      <c r="I5" s="55" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="4">
+        <v>15000</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4">
+        <v>2500</v>
+      </c>
+      <c r="G6" s="4">
+        <f>SUM(C6:F6)</f>
+        <v>2500</v>
+      </c>
+      <c r="H6" s="40">
+        <f>+B6-G6</f>
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="58" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="40">
+        <f>+B6</f>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" s="40">
+        <f>+F6</f>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="4">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D14" s="56">
+        <f>SUM(D10:D13)</f>
+        <v>15000</v>
+      </c>
+      <c r="E14" s="57">
+        <f>SUM(E11:E13)</f>
+        <v>15000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C9:E9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/aCCTg. pROGRAm/CRB.xlsx
+++ b/aCCTg. pROGRAm/CRB.xlsx
@@ -259,9 +259,6 @@
     <t>debit sa purchases, credit sa cash on hand, kung naay sukli debit na pud sa cash on hand?</t>
   </si>
   <si>
-    <t>utang ng costumer, credit on sales?yes. Debit on accounts receivalbe - IOU(quantity, amount, date, parties involved), issue INVOICE</t>
-  </si>
-  <si>
     <t>loans ng customers, issue cash voucher to customer? Credit sa cash?yes Debit sa loans receivable?</t>
   </si>
   <si>
@@ -323,6 +320,9 @@
   </si>
   <si>
     <t>any document?</t>
+  </si>
+  <si>
+    <t>utang ng costumer, credit on sales?yes. Debit on accounts receivalbe - IOU(quantity, amount, date, parties involved), charge INVOICE</t>
   </si>
 </sst>
 </file>
@@ -664,6 +664,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -688,14 +696,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1007,7 +1007,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1067,12 +1067,12 @@
       <c r="E2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="46" t="s">
+      <c r="F2" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
       <c r="J2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1420,7 +1420,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1459,7 +1459,7 @@
       </c>
       <c r="B2" s="20"/>
       <c r="C2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H2" s="44"/>
     </row>
@@ -1469,7 +1469,7 @@
       </c>
       <c r="B3" s="20"/>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1477,7 +1477,7 @@
         <v>24</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1485,7 +1485,7 @@
         <v>25</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1501,7 +1501,7 @@
         <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C7" s="20"/>
     </row>
@@ -1510,7 +1510,7 @@
         <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C8" s="20"/>
     </row>
@@ -1519,7 +1519,7 @@
         <v>29</v>
       </c>
       <c r="B9" s="44" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C9" s="20"/>
     </row>
@@ -1621,7 +1621,7 @@
         <v>42</v>
       </c>
       <c r="C23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F23" s="20"/>
     </row>
@@ -1630,7 +1630,7 @@
         <v>43</v>
       </c>
       <c r="C24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F24" s="20"/>
     </row>
@@ -1639,7 +1639,7 @@
         <v>46</v>
       </c>
       <c r="C25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F25" s="20"/>
     </row>
@@ -1648,7 +1648,7 @@
         <v>45</v>
       </c>
       <c r="C26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F26" s="20"/>
     </row>
@@ -1657,7 +1657,7 @@
         <v>47</v>
       </c>
       <c r="C27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F27" s="20"/>
     </row>
@@ -1666,7 +1666,7 @@
         <v>48</v>
       </c>
       <c r="C28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F28" s="20"/>
     </row>
@@ -1675,7 +1675,7 @@
         <v>49</v>
       </c>
       <c r="C29" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F29" s="20"/>
     </row>
@@ -1684,7 +1684,7 @@
         <v>50</v>
       </c>
       <c r="C30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F30" s="20"/>
     </row>
@@ -1693,7 +1693,7 @@
         <v>51</v>
       </c>
       <c r="C31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F31" s="20"/>
     </row>
@@ -1702,7 +1702,7 @@
         <v>52</v>
       </c>
       <c r="C32" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F32" s="20"/>
     </row>
@@ -1711,7 +1711,7 @@
         <v>53</v>
       </c>
       <c r="C33" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F33" s="20"/>
     </row>
@@ -1720,7 +1720,7 @@
         <v>54</v>
       </c>
       <c r="C34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F34" s="20"/>
     </row>
@@ -1729,7 +1729,7 @@
         <v>55</v>
       </c>
       <c r="C35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F35" s="20"/>
     </row>
@@ -1779,7 +1779,7 @@
   <dimension ref="A1:S41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1798,27 +1798,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="51"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="55"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="41" t="s">
@@ -1852,34 +1852,34 @@
       <c r="S2" s="41"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="E3" s="52" t="s">
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="E3" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
       <c r="H3" s="24"/>
-      <c r="I3" s="52" t="s">
+      <c r="I3" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
       <c r="L3" s="27"/>
-      <c r="M3" s="52" t="s">
+      <c r="M3" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="56"/>
       <c r="P3" s="27"/>
-      <c r="Q3" s="52" t="s">
+      <c r="Q3" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="R3" s="52"/>
-      <c r="S3" s="52"/>
+      <c r="R3" s="56"/>
+      <c r="S3" s="56"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
@@ -2165,10 +2165,10 @@
         <f>+C15</f>
         <v>500000</v>
       </c>
-      <c r="J17" s="48" t="s">
+      <c r="J17" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="K17" s="48"/>
+      <c r="K17" s="52"/>
       <c r="L17" s="18" t="s">
         <v>72</v>
       </c>
@@ -2294,42 +2294,42 @@
   <sheetData>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C4" s="57" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="46" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C4" s="53" t="s">
+      <c r="C5" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="F5" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="G5" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="H5" t="s">
         <v>84</v>
       </c>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="54" t="s">
-        <v>83</v>
-      </c>
-      <c r="C5" s="54" t="s">
-        <v>86</v>
-      </c>
-      <c r="D5" s="54" t="s">
-        <v>87</v>
-      </c>
-      <c r="E5" s="54" t="s">
-        <v>88</v>
-      </c>
-      <c r="F5" s="54" t="s">
-        <v>89</v>
-      </c>
-      <c r="G5" s="54" t="s">
+      <c r="I5" s="47" t="s">
         <v>90</v>
-      </c>
-      <c r="H5" t="s">
-        <v>85</v>
-      </c>
-      <c r="I5" s="55" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
@@ -2353,7 +2353,7 @@
     </row>
     <row r="9" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="58" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D9" s="58"/>
       <c r="E9" s="58"/>
@@ -2369,7 +2369,7 @@
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E12" s="40">
         <f>+F6</f>
@@ -2385,11 +2385,11 @@
       </c>
     </row>
     <row r="14" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="56">
+      <c r="D14" s="48">
         <f>SUM(D10:D13)</f>
         <v>15000</v>
       </c>
-      <c r="E14" s="57">
+      <c r="E14" s="49">
         <f>SUM(E11:E13)</f>
         <v>15000</v>
       </c>

--- a/aCCTg. pROGRAm/CRB.xlsx
+++ b/aCCTg. pROGRAm/CRB.xlsx
@@ -1420,7 +1420,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
